--- a/data/trans_dic/P36B02_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.871422725443203</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9436591089247028</v>
+        <v>0.9436591089247029</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9566745698125512</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9265824158548911</v>
+        <v>0.9264733704024595</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7644335958653827</v>
+        <v>0.7691236913028918</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8251245270947744</v>
+        <v>0.8211667483900099</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9064293886288157</v>
+        <v>0.904497155379394</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.925254172947367</v>
+        <v>0.9245195823444283</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8376000906492833</v>
+        <v>0.845936010662566</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.876866914076454</v>
+        <v>0.8789042007511904</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8970678158636153</v>
+        <v>0.8981791020435727</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9369653192294533</v>
+        <v>0.9348896386193751</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.8211907032260038</v>
+        <v>0.8165444504436166</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.867882218470867</v>
+        <v>0.8643198835088829</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9141378857688613</v>
+        <v>0.9139348806490004</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9776768595604479</v>
+        <v>0.9773662545540893</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8611322805313298</v>
+        <v>0.8638127606246317</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9053676098849749</v>
+        <v>0.909916005198859</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9667726528859062</v>
+        <v>0.9654355680752572</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9764949613111739</v>
+        <v>0.9766827530227216</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9195369836421905</v>
+        <v>0.9251287873857384</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.943404963680457</v>
+        <v>0.943593453724594</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9498228935298539</v>
+        <v>0.9505468704095005</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9719042946677175</v>
+        <v>0.9733097649264588</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8809308089762119</v>
+        <v>0.8783568099288455</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9202492676661437</v>
+        <v>0.9170209056501214</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9529939649246174</v>
+        <v>0.9522503834849202</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8521786017549762</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.7172001069899665</v>
+        <v>0.7172001069899666</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.8977535727355295</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8471551927282418</v>
+        <v>0.8476071480242788</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8508293046027215</v>
+        <v>0.844784767856934</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8179642500219493</v>
+        <v>0.8195697092579585</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6670010820567518</v>
+        <v>0.6661134688040758</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8668083679038696</v>
+        <v>0.8640715442916879</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8799053481027966</v>
+        <v>0.8753837691225503</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8683996384448854</v>
+        <v>0.8713694278925872</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7615813326256357</v>
+        <v>0.7613682951893401</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8656343536613705</v>
+        <v>0.8678785692375268</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.8753174069231991</v>
+        <v>0.8715437986450689</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8564644262432783</v>
+        <v>0.8562593249638659</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7276047179940286</v>
+        <v>0.728674572513762</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9076616631494479</v>
+        <v>0.9080381410991761</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9102734779926617</v>
+        <v>0.9084382623051764</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8820454652891204</v>
+        <v>0.8812650295039207</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7631261006135238</v>
+        <v>0.7618005825925579</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9224948178440853</v>
+        <v>0.9208573751872341</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9310184306928734</v>
+        <v>0.9299377475344728</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9220506828829753</v>
+        <v>0.9249992678053913</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8232599901663116</v>
+        <v>0.8240349463796339</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9074354185079329</v>
+        <v>0.9098212592532258</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9128384827834406</v>
+        <v>0.9136958355024497</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8981026413315184</v>
+        <v>0.8984197024706126</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7816409572731827</v>
+        <v>0.781644905404227</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.9828606293047656</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.9316325342258047</v>
+        <v>0.9316325342258046</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.9582434613364952</v>
@@ -969,7 +969,7 @@
         <v>0.9741916441642473</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.9479605115232619</v>
+        <v>0.9479605115232617</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9163279873876231</v>
+        <v>0.9076728559485766</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9312958341062928</v>
+        <v>0.9314084814984775</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9387992461854417</v>
+        <v>0.9375630672473618</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9415520350872257</v>
+        <v>0.9437858809971151</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9394130893272885</v>
+        <v>0.9446727149379128</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9215581395378539</v>
+        <v>0.9222787104166146</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9653826284054586</v>
+        <v>0.9647555682202833</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.905194628545786</v>
+        <v>0.9052840782381292</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9392889162148985</v>
+        <v>0.9383719739647928</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.935967902071636</v>
+        <v>0.9352850864800922</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9610888681831224</v>
+        <v>0.9601568580021492</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9306488475053208</v>
+        <v>0.9290426049319559</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9712638041602617</v>
+        <v>0.9676374383011432</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9755575201469485</v>
+        <v>0.9757886591114188</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9816402245800706</v>
+        <v>0.9821223618309305</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9812376123125272</v>
+        <v>0.9819830600460708</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9843602585171279</v>
+        <v>0.9843420004733465</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9710177985005021</v>
+        <v>0.9711480300797217</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9919895474690288</v>
+        <v>0.9939276796701104</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9538421286899226</v>
+        <v>0.9511142036006126</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9723608479164326</v>
+        <v>0.97288242124214</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9699273294450979</v>
+        <v>0.9685991786533398</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9846437932309979</v>
+        <v>0.9853610969591576</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9618545008795802</v>
+        <v>0.9616242580444302</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.8898968361175141</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9126547832848788</v>
+        <v>0.9126547832848789</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.9676121951514129</v>
@@ -1093,7 +1093,7 @@
         <v>0.9328546235139437</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9245724418082127</v>
+        <v>0.9245724418082129</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.9532891504845165</v>
@@ -1105,7 +1105,7 @@
         <v>0.9118425278726556</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9189794594363794</v>
+        <v>0.9189794594363792</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9064547309838555</v>
+        <v>0.9095285587605613</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9436283587786859</v>
+        <v>0.9411513696210443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8515806849173937</v>
+        <v>0.854538284049235</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8599608547252521</v>
+        <v>0.858397167381731</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9433030501134151</v>
+        <v>0.9427820389529702</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9456948395960427</v>
+        <v>0.9457986909403081</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9010361004904335</v>
+        <v>0.9023737721290391</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8976332277017398</v>
+        <v>0.896302099559941</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9352737064375336</v>
+        <v>0.935109767088198</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.952504831675112</v>
+        <v>0.9509531146841144</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.890393745360005</v>
+        <v>0.8901247123617286</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.890240145495934</v>
+        <v>0.8941970685279981</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9588217227006169</v>
+        <v>0.958869468169921</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9858315051113142</v>
+        <v>0.9849746817090709</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9189970540662756</v>
+        <v>0.9191809294259613</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9464159260485834</v>
+        <v>0.9479513329293701</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9822785214279769</v>
+        <v>0.9799082419713331</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9820321078300652</v>
+        <v>0.9817832604581601</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9565653054481427</v>
+        <v>0.9551795486339979</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9453840019689251</v>
+        <v>0.9432355369076534</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9675637378986227</v>
+        <v>0.9674785298070281</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9793419358410395</v>
+        <v>0.9788290351447968</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9303471459221647</v>
+        <v>0.9312856486486775</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9376241508782173</v>
+        <v>0.938898230689949</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.9876743000158448</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.9799779843644444</v>
+        <v>0.9799779843644442</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.9377612654139312</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.873731581470704</v>
+        <v>0.8702888313363562</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9230072813399742</v>
+        <v>0.9234388495468984</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9534855424200714</v>
+        <v>0.9451254477074215</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9534297467334518</v>
+        <v>0.9538927011559057</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9232810198830317</v>
+        <v>0.9237389159057082</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8831859246429621</v>
+        <v>0.8908908921942126</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9639765516453805</v>
+        <v>0.9638479052633973</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9582021547399525</v>
+        <v>0.9598806175798099</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9117789576614617</v>
+        <v>0.9106770942066885</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9163863060441952</v>
+        <v>0.9193482354193072</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9700646472211139</v>
+        <v>0.9683301996183494</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9647512161562947</v>
+        <v>0.9637353033217692</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9513744727353488</v>
+        <v>0.9482315492808899</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9777046213565203</v>
+        <v>0.9803453998903111</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9953756980342976</v>
+        <v>0.9953354570099759</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9902284282819082</v>
+        <v>0.990075933506259</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9830074024937597</v>
+        <v>0.9824674512877711</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9596802575781589</v>
+        <v>0.9622006389818756</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9962421754376344</v>
+        <v>0.9962276480222637</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9910135601421968</v>
+        <v>0.9909903099397127</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9596213899931352</v>
+        <v>0.9609923828921685</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.965423818835357</v>
+        <v>0.9654487896689932</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9937964724970709</v>
+        <v>0.9940273765688785</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9870455344235999</v>
+        <v>0.9873211231462863</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.8621288713114384</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.8729050604069803</v>
+        <v>0.8729050604069805</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.945774281754245</v>
@@ -1365,7 +1365,7 @@
         <v>0.9246456059901607</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.9240401811967794</v>
+        <v>0.9240401811967792</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.9445726852875341</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9131323453253738</v>
+        <v>0.911249489130472</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.90663336568983</v>
+        <v>0.912122223129285</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8146170293795328</v>
+        <v>0.8156950051507911</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8277433348505239</v>
+        <v>0.8282506073950149</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.913179323354135</v>
+        <v>0.9152693076702199</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9297395882325019</v>
+        <v>0.9297723647018561</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8862236548995557</v>
+        <v>0.8835115477921852</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8976131320765131</v>
+        <v>0.8971952195051538</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.92445034462453</v>
+        <v>0.922528956592424</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.9317309245035155</v>
+        <v>0.9307431308470135</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.8662335361603131</v>
+        <v>0.8640267430336872</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.8742106990753533</v>
+        <v>0.8745297793770742</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9672138148002122</v>
+        <v>0.964898046445905</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9703273711930356</v>
+        <v>0.9717922637575303</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9008581009113205</v>
+        <v>0.9002854554993354</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9033031703465996</v>
+        <v>0.9052939574168574</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9674069005851045</v>
+        <v>0.967998540760705</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9790608381267937</v>
+        <v>0.976703568707091</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9508405902387594</v>
+        <v>0.9513006481919615</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.946379674994846</v>
+        <v>0.9454010174277371</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9604579734690666</v>
+        <v>0.9608546645267021</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.968467380653637</v>
+        <v>0.9682031820123987</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.9189321094682054</v>
+        <v>0.9182521226303864</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9197206979326031</v>
+        <v>0.9178852135535094</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.9189147298292274</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.8949002676281039</v>
+        <v>0.8949002676281042</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9234759417307076</v>
+        <v>0.923413407960131</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9139583015261756</v>
+        <v>0.9146349158067703</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8973503627999039</v>
+        <v>0.894513197870203</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.874091119379367</v>
+        <v>0.8752911754162435</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8995525137361717</v>
+        <v>0.8952787046069134</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9154040594524732</v>
+        <v>0.9136106191358123</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8980879858310552</v>
+        <v>0.894116556524456</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8659382092415751</v>
+        <v>0.8657779301601465</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9156530284304345</v>
+        <v>0.9155117002665526</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.9226406492775716</v>
+        <v>0.9224993275143996</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.904279293105264</v>
+        <v>0.9017318903657005</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.8770341487817793</v>
+        <v>0.8771565174550772</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9626654214256105</v>
+        <v>0.9619820587137683</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9529560026493116</v>
+        <v>0.9544934019820301</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9391281762390362</v>
+        <v>0.9397605871470665</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9258163301438137</v>
+        <v>0.925489381778099</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9397925466958781</v>
+        <v>0.9422381995343754</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9548865027758077</v>
+        <v>0.9533653259602872</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.937168091884486</v>
+        <v>0.9378369789799339</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9082100880125317</v>
+        <v>0.9071521245331935</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9466891344368403</v>
+        <v>0.9464963473592767</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.9507083760799859</v>
+        <v>0.9504608512796298</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9336124955565032</v>
+        <v>0.9330926432286717</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.9097286920193798</v>
+        <v>0.9115962674000695</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.9699413469643828</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.8346723473692708</v>
+        <v>0.8346723473692709</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.9581101329927693</v>
@@ -1637,7 +1637,7 @@
         <v>0.972623738191142</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.8671388046096276</v>
+        <v>0.8671388046096278</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.9414593788859899</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9029695785575859</v>
+        <v>0.9020844958000183</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.950827842704422</v>
+        <v>0.9526775607344637</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9540520675518055</v>
+        <v>0.9554476842945707</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8051602261481674</v>
+        <v>0.8038389343403912</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.942229424813405</v>
+        <v>0.9419244510536589</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.9517957071093022</v>
+        <v>0.9527458650472138</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9601307108042992</v>
+        <v>0.958949086502402</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.8438575546931674</v>
+        <v>0.8472870834648984</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.9286711230418619</v>
+        <v>0.9281380332269732</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.956107242659303</v>
+        <v>0.9575105630785086</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.9613038312145553</v>
+        <v>0.9617940970486094</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.8330769167570451</v>
+        <v>0.8322540132335795</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9410544302144719</v>
+        <v>0.9407417480912985</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9797957670088115</v>
+        <v>0.9799027532768929</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9800231064955303</v>
+        <v>0.9814295329255136</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8604070360360783</v>
+        <v>0.8609075011008256</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9704229506083125</v>
+        <v>0.9705620364925733</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.978809493166624</v>
+        <v>0.9789134625504314</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9827662845001153</v>
+        <v>0.9825585911862018</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.8857979333115126</v>
+        <v>0.8904715152149174</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.9527256680382632</v>
+        <v>0.952423024245068</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.9765494263153359</v>
+        <v>0.9760880482837927</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.9788800846922331</v>
+        <v>0.9783878089936875</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.867417423390911</v>
+        <v>0.8687876401822412</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.9405541055985142</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.8896405523825281</v>
+        <v>0.8896405523825283</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.9360886533320603</v>
@@ -1785,7 +1785,7 @@
         <v>0.9292952572281248</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.8809234717780878</v>
+        <v>0.8809234717780879</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9193922347015256</v>
+        <v>0.9183905642118716</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.9240131857381787</v>
+        <v>0.923304948838276</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.9065339769979773</v>
+        <v>0.9066579647860566</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8593856237352596</v>
+        <v>0.8583036144114378</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.9348332449852381</v>
+        <v>0.9345997695830968</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.9327160412204542</v>
+        <v>0.9329762086041228</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.9331931897812016</v>
+        <v>0.9323592392575535</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.8805629845986034</v>
+        <v>0.8801141115018345</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.9300440490684013</v>
+        <v>0.9303036556572525</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.931228176628615</v>
+        <v>0.9308239186155596</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.9222877870970893</v>
+        <v>0.9226385573346354</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.8733532619272564</v>
+        <v>0.8730156327073653</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9380101242385006</v>
+        <v>0.9362691151065636</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9424960034336447</v>
+        <v>0.9409200994019693</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.926331129188978</v>
+        <v>0.9270995234120417</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.8848797962498405</v>
+        <v>0.8848742394802361</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.9506658952196159</v>
+        <v>0.9511167037688082</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.9491461774348536</v>
+        <v>0.9488756013443324</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9489431041359669</v>
+        <v>0.94822016739912</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.8992724755102113</v>
+        <v>0.8976410528258651</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.9420879043686058</v>
+        <v>0.9423792449104453</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.9435758011996198</v>
+        <v>0.9428569902130046</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.9354727953366554</v>
+        <v>0.9351287688346068</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.8891553239784059</v>
+        <v>0.8889815300828143</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>252966</v>
+        <v>252936</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>225308</v>
+        <v>226690</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>241515</v>
+        <v>240356</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>289010</v>
+        <v>288394</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>241341</v>
+        <v>241150</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>240596</v>
+        <v>242991</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>253154</v>
+        <v>253742</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>283528</v>
+        <v>283879</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>500197</v>
+        <v>499089</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>477919</v>
+        <v>475215</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>504590</v>
+        <v>502519</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>580392</v>
+        <v>580263</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>266916</v>
+        <v>266831</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>253808</v>
+        <v>254598</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>265002</v>
+        <v>266333</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>308251</v>
+        <v>307824</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>254707</v>
+        <v>254756</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>264132</v>
+        <v>265739</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>272364</v>
+        <v>272418</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>300202</v>
+        <v>300431</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>518849</v>
+        <v>519599</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>512687</v>
+        <v>511189</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>535037</v>
+        <v>533160</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>605062</v>
+        <v>604589</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>417711</v>
+        <v>417934</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>430117</v>
+        <v>427062</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>410203</v>
+        <v>411008</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>353942</v>
+        <v>353471</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>436827</v>
+        <v>435448</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>460864</v>
+        <v>458495</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>454246</v>
+        <v>455799</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>416200</v>
+        <v>416083</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>863058</v>
+        <v>865296</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>900957</v>
+        <v>897073</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>877513</v>
+        <v>877303</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>783733</v>
+        <v>784885</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>447545</v>
+        <v>447731</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>460168</v>
+        <v>459240</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>442339</v>
+        <v>441947</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>404951</v>
+        <v>404247</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>464890</v>
+        <v>464065</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>487635</v>
+        <v>487069</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>482310</v>
+        <v>483852</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>449907</v>
+        <v>450330</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>904735</v>
+        <v>907114</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>939577</v>
+        <v>940460</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>920174</v>
+        <v>920499</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>841938</v>
+        <v>841942</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>292168</v>
+        <v>289408</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>301783</v>
+        <v>301819</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>298159</v>
+        <v>297766</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>297524</v>
+        <v>298230</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>315090</v>
+        <v>316855</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>314270</v>
+        <v>314515</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>324667</v>
+        <v>324456</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>322594</v>
+        <v>322626</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>614537</v>
+        <v>613937</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>622480</v>
+        <v>622026</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>628461</v>
+        <v>627851</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>625745</v>
+        <v>624665</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>309684</v>
+        <v>308527</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>316126</v>
+        <v>316200</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>311765</v>
+        <v>311918</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>310064</v>
+        <v>310300</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>330166</v>
+        <v>330160</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>331136</v>
+        <v>331181</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>333615</v>
+        <v>334267</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>339931</v>
+        <v>338959</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>636175</v>
+        <v>636516</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>645066</v>
+        <v>644182</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>643863</v>
+        <v>644333</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>646727</v>
+        <v>646572</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>325119</v>
+        <v>326222</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>352900</v>
+        <v>351974</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>315054</v>
+        <v>316148</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>320890</v>
+        <v>320307</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>350396</v>
+        <v>350202</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>366974</v>
+        <v>367014</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>348162</v>
+        <v>348679</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>378766</v>
+        <v>378205</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>682869</v>
+        <v>682749</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>725836</v>
+        <v>724654</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>673464</v>
+        <v>673260</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>707836</v>
+        <v>710982</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>343902</v>
+        <v>343919</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>368683</v>
+        <v>368363</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>339996</v>
+        <v>340064</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>353150</v>
+        <v>353723</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>364873</v>
+        <v>363993</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>381075</v>
+        <v>380978</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>369619</v>
+        <v>369083</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>398915</v>
+        <v>398009</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>706444</v>
+        <v>706382</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>746287</v>
+        <v>745896</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>703683</v>
+        <v>704393</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>745512</v>
+        <v>746525</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>177637</v>
+        <v>176937</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>196248</v>
+        <v>196340</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>201396</v>
+        <v>199630</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>196087</v>
+        <v>196182</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>191736</v>
+        <v>191831</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>193940</v>
+        <v>195632</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>210713</v>
+        <v>210685</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>217342</v>
+        <v>217723</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>374719</v>
+        <v>374266</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>396070</v>
+        <v>397351</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>416942</v>
+        <v>416196</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>417243</v>
+        <v>416804</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>193422</v>
+        <v>192783</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>207878</v>
+        <v>208439</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>210244</v>
+        <v>210236</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>203655</v>
+        <v>203624</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>204139</v>
+        <v>204027</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>210737</v>
+        <v>211291</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>217766</v>
+        <v>217762</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>224785</v>
+        <v>224779</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>394381</v>
+        <v>394945</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>417265</v>
+        <v>417276</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>427142</v>
+        <v>427241</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>426885</v>
+        <v>427005</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>247286</v>
+        <v>246776</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>248400</v>
+        <v>249904</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>214344</v>
+        <v>214628</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>224076</v>
+        <v>224213</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>253995</v>
+        <v>254577</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>259447</v>
+        <v>259456</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>242041</v>
+        <v>241300</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>236745</v>
+        <v>236635</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>507482</v>
+        <v>506427</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>515279</v>
+        <v>514733</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>464507</v>
+        <v>463324</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>467228</v>
+        <v>467399</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>261932</v>
+        <v>261305</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>265851</v>
+        <v>266253</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>237036</v>
+        <v>236886</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>244530</v>
+        <v>245069</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>269078</v>
+        <v>269243</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>273210</v>
+        <v>272552</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>259689</v>
+        <v>259814</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>249608</v>
+        <v>249350</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>527248</v>
+        <v>527466</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>535595</v>
+        <v>535449</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>492766</v>
+        <v>492402</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>491551</v>
+        <v>490570</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>567963</v>
+        <v>567924</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>604926</v>
+        <v>605374</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>587415</v>
+        <v>585557</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>629072</v>
+        <v>629936</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>573092</v>
+        <v>570370</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>631457</v>
+        <v>630220</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>618969</v>
+        <v>616232</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>668554</v>
+        <v>668430</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1146502</v>
+        <v>1146325</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1247120</v>
+        <v>1246929</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1215187</v>
+        <v>1211764</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1308310</v>
+        <v>1308493</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>592065</v>
+        <v>591645</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>630738</v>
+        <v>631755</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>614763</v>
+        <v>615177</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>666298</v>
+        <v>666063</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>598729</v>
+        <v>600287</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>658692</v>
+        <v>657643</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>645904</v>
+        <v>646365</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>701190</v>
+        <v>700373</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1185363</v>
+        <v>1185121</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1285059</v>
+        <v>1284725</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1254605</v>
+        <v>1253907</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1357082</v>
+        <v>1359868</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>670828</v>
+        <v>670170</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>740788</v>
+        <v>742229</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>741051</v>
+        <v>742135</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>642576</v>
+        <v>641521</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>738247</v>
+        <v>738008</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>784140</v>
+        <v>784923</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>793228</v>
+        <v>792252</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>701525</v>
+        <v>704376</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1417546</v>
+        <v>1416732</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1532593</v>
+        <v>1534843</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1540882</v>
+        <v>1541667</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1357418</v>
+        <v>1356077</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>699122</v>
+        <v>698889</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>763357</v>
+        <v>763440</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>761224</v>
+        <v>762317</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>686667</v>
+        <v>687066</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>760337</v>
+        <v>760446</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>806395</v>
+        <v>806481</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>811929</v>
+        <v>811757</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>736391</v>
+        <v>740277</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1454263</v>
+        <v>1453801</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1565361</v>
+        <v>1564621</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1569055</v>
+        <v>1568266</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1413373</v>
+        <v>1415605</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>3011617</v>
+        <v>3008336</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>3165544</v>
+        <v>3163118</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>3070837</v>
+        <v>3071257</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>3036005</v>
+        <v>3032182</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>3157927</v>
+        <v>3157139</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>3313366</v>
+        <v>3314291</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>3304974</v>
+        <v>3302020</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>3288779</v>
+        <v>3287103</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>6188258</v>
+        <v>6189986</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>6498343</v>
+        <v>6495522</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>6390553</v>
+        <v>6392984</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>6347201</v>
+        <v>6344748</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>3072603</v>
+        <v>3066900</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>3228864</v>
+        <v>3223465</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>3137899</v>
+        <v>3140501</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>3126070</v>
+        <v>3126050</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>3211411</v>
+        <v>3212934</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3371733</v>
+        <v>3370771</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>3360753</v>
+        <v>3358193</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>3358657</v>
+        <v>3352564</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>6268395</v>
+        <v>6270333</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>6584508</v>
+        <v>6579492</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>6481913</v>
+        <v>6479529</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>6462045</v>
+        <v>6460782</v>
       </c>
     </row>
     <row r="40">
